--- a/biology/Botanique/Muscari_à_toupet/Muscari_à_toupet.xlsx
+++ b/biology/Botanique/Muscari_à_toupet/Muscari_à_toupet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscari comosum
 Le Muscari à toupet (Muscari comosum (L.) Mill., parfois Leopoldia comosa (L.) Parl.), est une plante bulbeuse de la famille des Asparagacées selon la classification phylogénétique (précédemment classée parmi les Liliacées puis dans les Hyacinthacées selon la classification classique). Elle est cultivée comme plante ornementale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Queue-de-poireau, Muscari chevelu, Ail à toupet, Poireau roux, Muscari à houppe[1] (en allemand : Ackerhyacinthe, Schopmusk ; en anglais : grape hyacinth, tassel hyacinth, tufted hyacinth, feather hyacinth ; en italien : muscaro selvatico, cipolla di serpe).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queue-de-poireau, Muscari chevelu, Ail à toupet, Poireau roux, Muscari à houppe (en allemand : Ackerhyacinthe, Schopmusk ; en anglais : grape hyacinth, tassel hyacinth, tufted hyacinth, feather hyacinth ; en italien : muscaro selvatico, cipolla di serpe).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « muscari » vient du latin botanique, formé sur « musc » à cause de l'odeur des fleurs du muscari musqué (Muscari moschatum). L'épithète comosum vient du grec coma et fait référence à la « coiffe » de fleurs stériles longuement pédiculées lui donnant un aspect particulier[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « muscari » vient du latin botanique, formé sur « musc » à cause de l'odeur des fleurs du muscari musqué (Muscari moschatum). L'épithète comosum vient du grec coma et fait référence à la « coiffe » de fleurs stériles longuement pédiculées lui donnant un aspect particulier.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à son bulbe, c'est une espèce vivace qui atteint de 30 à 60 cm de haut et qui fleurit au printemps, entre avril et juillet. Le bulbe de couleur tirant sur le roux a la taille d'une noix.
 Les feuilles, de 10 à 15 cm de long et 6 à 12 mm de large, ont une forme linéaire, et sont rétrécies aux extrémités. Elles sont toutes réunies à la base de la plante, plus ou moins étalées. Les fleurs, sans odeur, ont une forme de grelot de couleur violette, ovoïde plus ou moins tubuleux, terminé par six dents très courtes. les pétales sont entièrement soudés. L'ovaire est divisé en trois loges. Les fleurs sont réunies en une longue grappe assez lâche. Celles du haut, à pédicelles plus longs et redressés, ne produisent pas de fruit. Les fruits sont des capsules s'ouvrant par trois valves triangulaires un peu arrondies.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Europe centrale et méridionale, en Asie du sud-ouest (Chypre, Turquie, Iran, Israël, Liban...), et en Afrique du Nord.
-La plante est commune en France à l'état sauvage, plus rare en Belgique[3]. Elle pousse dans les prés secs, les vignes et près de murs bien exposés dans le sud de la Suisse[4].
+La plante est commune en France à l'état sauvage, plus rare en Belgique. Elle pousse dans les prés secs, les vignes et près de murs bien exposés dans le sud de la Suisse.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée dans les jardins pour l'ornement, elle se plante en général en masse pour faire plus d'effet. Elle se naturalise très bien dans les pelouses (reproduction spontanée par semis). C'est une plante assez rustique qui reste en place l'hiver.
 Une variété appelée plumosum ou monstruosum est cultivée sous le nom de muscari plumeux ou jacinthe de Sienne. Elle présente une inflorescence très plumeuse formée de fleurs avortées pourpres.
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscari_%C3%A0_toupet</t>
+          <t>Muscari_à_toupet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Autres muscaris cultivés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Muscari racemosum - Muscari à grappes
 Muscari botryoides - Muscari raisin
